--- a/generic_load_profile.xlsx
+++ b/generic_load_profile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\dynamic-guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\02-DYNAMIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCDB01-DC83-4A67-8AB1-5D60E638F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0F644-0FA5-40C7-8C8F-CDF0F4060BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4566,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD472306-BCFB-2B43-A4AB-159B992482B6}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -5420,7 +5420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F6B908-45BD-401E-8FFD-17826D7A96A8}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
